--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="latest_eval," sheetId="1" r:id="rId1"/>
+    <sheet name="latest_eval" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01279531655492665</v>
+        <v>-0.1250617157922688</v>
       </c>
       <c r="C2">
-        <v>0.4206736924384051</v>
+        <v>0.5555183432352195</v>
       </c>
       <c r="D2">
-        <v>0.4436946091867814</v>
+        <v>0.6995838223442629</v>
       </c>
       <c r="E2">
-        <v>0.6661040528226663</v>
+        <v>0.8364112758351975</v>
       </c>
       <c r="F2">
-        <v>0.672742550949622</v>
+        <v>0.8354049424957229</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4253145152032158</v>
+        <v>0.3719515601421958</v>
       </c>
       <c r="C3">
-        <v>0.7051715284317073</v>
+        <v>0.7459951107692967</v>
       </c>
       <c r="D3">
-        <v>1.455332834918957</v>
+        <v>1.522418059711977</v>
       </c>
       <c r="E3">
-        <v>1.206371764805094</v>
+        <v>1.233863063598217</v>
       </c>
       <c r="F3">
-        <v>1.140610029634582</v>
+        <v>1.188656758824574</v>
       </c>
       <c r="G3">
         <v>49</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6041157085646035</v>
+        <v>0.4541585807807824</v>
       </c>
       <c r="C4">
-        <v>1.054181531327729</v>
+        <v>1.04916654926496</v>
       </c>
       <c r="D4">
-        <v>4.192407435139237</v>
+        <v>3.764402933008068</v>
       </c>
       <c r="E4">
-        <v>2.047536919115071</v>
+        <v>1.940206930460787</v>
       </c>
       <c r="F4">
-        <v>1.977090485335668</v>
+        <v>1.906265481234884</v>
       </c>
       <c r="G4">
         <v>48</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.492335636057914</v>
+        <v>0.422918388690988</v>
       </c>
       <c r="C5">
-        <v>1.104594972656195</v>
+        <v>1.13962110842592</v>
       </c>
       <c r="D5">
-        <v>4.831612135462052</v>
+        <v>4.720541585393809</v>
       </c>
       <c r="E5">
-        <v>2.198092840501068</v>
+        <v>2.172680737106538</v>
       </c>
       <c r="F5">
-        <v>2.165406049760878</v>
+        <v>2.15416197883831</v>
       </c>
       <c r="G5">
         <v>47</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4045678632237423</v>
+        <v>0.2396519184303125</v>
       </c>
       <c r="C6">
-        <v>0.9767685089927266</v>
+        <v>0.962147624362754</v>
       </c>
       <c r="D6">
-        <v>4.477249996630971</v>
+        <v>4.10586913343047</v>
       </c>
       <c r="E6">
-        <v>2.115951321895419</v>
+        <v>2.026294434042217</v>
       </c>
       <c r="F6">
-        <v>2.099864771683946</v>
+        <v>2.034306107226543</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3971842988168393</v>
+        <v>0.2900791048022007</v>
       </c>
       <c r="C7">
-        <v>1.068834033758934</v>
+        <v>1.030905847179739</v>
       </c>
       <c r="D7">
-        <v>5.512122890707765</v>
+        <v>5.137395499217558</v>
       </c>
       <c r="E7">
-        <v>2.34779106623817</v>
+        <v>2.266582338945037</v>
       </c>
       <c r="F7">
-        <v>2.3487488339111</v>
+        <v>2.28174897574234</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3881726698115356</v>
+        <v>0.2209419343134404</v>
       </c>
       <c r="C8">
-        <v>1.070864984144432</v>
+        <v>1.046751655212453</v>
       </c>
       <c r="D8">
-        <v>5.6365315839776</v>
+        <v>5.254410289209334</v>
       </c>
       <c r="E8">
-        <v>2.374138071801554</v>
+        <v>2.292250049451266</v>
       </c>
       <c r="F8">
-        <v>2.378505094847106</v>
+        <v>2.316952695478674</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2469932723973198</v>
+        <v>0.1370776462960769</v>
       </c>
       <c r="C9">
-        <v>1.594326093029843</v>
+        <v>1.61474521251127</v>
       </c>
       <c r="D9">
-        <v>10.79654930455789</v>
+        <v>10.23233324787276</v>
       </c>
       <c r="E9">
-        <v>3.285810296495812</v>
+        <v>3.198801845671713</v>
       </c>
       <c r="F9">
-        <v>3.383969050756559</v>
+        <v>3.300673542053086</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.6362704262060774</v>
+        <v>-0.7038664495325276</v>
       </c>
       <c r="C10">
-        <v>1.278881261823178</v>
+        <v>1.239373893761973</v>
       </c>
       <c r="D10">
-        <v>7.066425088523457</v>
+        <v>7.311748838265475</v>
       </c>
       <c r="E10">
-        <v>2.658274833143378</v>
+        <v>2.704024563177168</v>
       </c>
       <c r="F10">
-        <v>2.720617787941839</v>
+        <v>2.752033765031871</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.519969595466371</v>
+        <v>0.2007429256103617</v>
       </c>
       <c r="C11">
-        <v>0.5362226368289061</v>
+        <v>0.6416278403412059</v>
       </c>
       <c r="D11">
-        <v>0.3603679742451336</v>
+        <v>0.4618474333756422</v>
       </c>
       <c r="E11">
-        <v>0.6003065668848989</v>
+        <v>0.6795935795574015</v>
       </c>
       <c r="F11">
-        <v>0.3354094401542539</v>
+        <v>0.7259043593968103</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1250617157922688</v>
+        <v>-0.1079215458242564</v>
       </c>
       <c r="C2">
-        <v>0.5555183432352195</v>
+        <v>0.4990845831178726</v>
       </c>
       <c r="D2">
-        <v>0.6995838223442629</v>
+        <v>0.6310303664915219</v>
       </c>
       <c r="E2">
-        <v>0.8364112758351975</v>
+        <v>0.7943741980273037</v>
       </c>
       <c r="F2">
-        <v>0.8354049424957229</v>
+        <v>0.7948402182622575</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3719515601421958</v>
+        <v>0.3713778311963193</v>
       </c>
       <c r="C3">
-        <v>0.7459951107692967</v>
+        <v>0.7365167446170454</v>
       </c>
       <c r="D3">
-        <v>1.522418059711977</v>
+        <v>1.455560046373499</v>
       </c>
       <c r="E3">
-        <v>1.233863063598217</v>
+        <v>1.206465932537467</v>
       </c>
       <c r="F3">
-        <v>1.188656758824574</v>
+        <v>1.159538328638186</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4541585807807824</v>
+        <v>0.4609105965926396</v>
       </c>
       <c r="C4">
-        <v>1.04916654926496</v>
+        <v>1.00885168430549</v>
       </c>
       <c r="D4">
-        <v>3.764402933008068</v>
+        <v>3.578481368703621</v>
       </c>
       <c r="E4">
-        <v>1.940206930460787</v>
+        <v>1.891687439484552</v>
       </c>
       <c r="F4">
-        <v>1.906265481234884</v>
+        <v>1.85369055727329</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.422918388690988</v>
+        <v>0.4265731976396117</v>
       </c>
       <c r="C5">
-        <v>1.13962110842592</v>
+        <v>1.138403783358868</v>
       </c>
       <c r="D5">
-        <v>4.720541585393809</v>
+        <v>4.557394820086173</v>
       </c>
       <c r="E5">
-        <v>2.172680737106538</v>
+        <v>2.134805569621312</v>
       </c>
       <c r="F5">
-        <v>2.15416197883831</v>
+        <v>2.113888451448179</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2396519184303125</v>
+        <v>0.2577980780148568</v>
       </c>
       <c r="C6">
-        <v>0.962147624362754</v>
+        <v>0.9475793177038206</v>
       </c>
       <c r="D6">
-        <v>4.10586913343047</v>
+        <v>3.943416922645604</v>
       </c>
       <c r="E6">
-        <v>2.026294434042217</v>
+        <v>1.985803847978346</v>
       </c>
       <c r="F6">
-        <v>2.034306107226543</v>
+        <v>1.990286097306333</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2900791048022007</v>
+        <v>0.2936268802263522</v>
       </c>
       <c r="C7">
-        <v>1.030905847179739</v>
+        <v>0.999724168007887</v>
       </c>
       <c r="D7">
-        <v>5.137395499217558</v>
+        <v>4.905488059981674</v>
       </c>
       <c r="E7">
-        <v>2.266582338945037</v>
+        <v>2.214833641604189</v>
       </c>
       <c r="F7">
-        <v>2.28174897574234</v>
+        <v>2.227333515476834</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2209419343134404</v>
+        <v>0.2339287874485977</v>
       </c>
       <c r="C8">
-        <v>1.046751655212453</v>
+        <v>1.007627164027908</v>
       </c>
       <c r="D8">
-        <v>5.254410289209334</v>
+        <v>5.003647654014131</v>
       </c>
       <c r="E8">
-        <v>2.292250049451266</v>
+        <v>2.236883469028758</v>
       </c>
       <c r="F8">
-        <v>2.316952695478674</v>
+        <v>2.258072718037386</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1370776462960769</v>
+        <v>0.1807689603703594</v>
       </c>
       <c r="C9">
-        <v>1.61474521251127</v>
+        <v>1.497342948823048</v>
       </c>
       <c r="D9">
-        <v>10.23233324787276</v>
+        <v>9.511094063079014</v>
       </c>
       <c r="E9">
-        <v>3.198801845671713</v>
+        <v>3.084006171050735</v>
       </c>
       <c r="F9">
-        <v>3.300673542053086</v>
+        <v>3.173455165340056</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.7038664495325276</v>
+        <v>-0.6878977726065058</v>
       </c>
       <c r="C10">
-        <v>1.239373893761973</v>
+        <v>1.16036325979617</v>
       </c>
       <c r="D10">
-        <v>7.311748838265475</v>
+        <v>7.183952125666254</v>
       </c>
       <c r="E10">
-        <v>2.704024563177168</v>
+        <v>2.680289560041275</v>
       </c>
       <c r="F10">
-        <v>2.752033765031871</v>
+        <v>2.730638667684675</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2007429256103617</v>
+        <v>0.1218082912510491</v>
       </c>
       <c r="C11">
-        <v>0.6416278403412059</v>
+        <v>0.4641168854429287</v>
       </c>
       <c r="D11">
-        <v>0.4618474333756422</v>
+        <v>0.2644604851195395</v>
       </c>
       <c r="E11">
-        <v>0.6795935795574015</v>
+        <v>0.5142572168861994</v>
       </c>
       <c r="F11">
-        <v>0.7259043593968103</v>
+        <v>0.5585955886216332</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations/ifo_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1079215458242564</v>
+        <v>-0.1052853234940633</v>
       </c>
       <c r="C2">
-        <v>0.4990845831178726</v>
+        <v>0.4900476106607171</v>
       </c>
       <c r="D2">
-        <v>0.6310303664915219</v>
+        <v>0.6183260505831405</v>
       </c>
       <c r="E2">
-        <v>0.7943741980273037</v>
+        <v>0.7863371100127098</v>
       </c>
       <c r="F2">
-        <v>0.7948402182622575</v>
+        <v>0.7868594147108519</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3713778311963193</v>
+        <v>0.3646584415625562</v>
       </c>
       <c r="C3">
-        <v>0.7365167446170454</v>
+        <v>0.722637768445621</v>
       </c>
       <c r="D3">
-        <v>1.455560046373499</v>
+        <v>1.426035144228675</v>
       </c>
       <c r="E3">
-        <v>1.206465932537467</v>
+        <v>1.194167134126825</v>
       </c>
       <c r="F3">
-        <v>1.159538328638186</v>
+        <v>1.148442664015213</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4609105965926396</v>
+        <v>0.4532797608695453</v>
       </c>
       <c r="C4">
-        <v>1.00885168430549</v>
+        <v>0.9902620268281389</v>
       </c>
       <c r="D4">
-        <v>3.578481368703621</v>
+        <v>3.506287014911406</v>
       </c>
       <c r="E4">
-        <v>1.891687439484552</v>
+        <v>1.872508214911595</v>
       </c>
       <c r="F4">
-        <v>1.85369055727329</v>
+        <v>1.835262443918751</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4265731976396117</v>
+        <v>0.4187269926694491</v>
       </c>
       <c r="C5">
-        <v>1.138403783358868</v>
+        <v>1.116030423578108</v>
       </c>
       <c r="D5">
-        <v>4.557394820086173</v>
+        <v>4.462820609660299</v>
       </c>
       <c r="E5">
-        <v>2.134805569621312</v>
+        <v>2.112538901336564</v>
       </c>
       <c r="F5">
-        <v>2.113888451448179</v>
+        <v>2.092082930599334</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2577980780148568</v>
+        <v>0.2603619109577968</v>
       </c>
       <c r="C6">
-        <v>0.9475793177038206</v>
+        <v>0.935772708153241</v>
       </c>
       <c r="D6">
-        <v>3.943416922645604</v>
+        <v>3.863674849690833</v>
       </c>
       <c r="E6">
-        <v>1.985803847978346</v>
+        <v>1.965623272575606</v>
       </c>
       <c r="F6">
-        <v>1.990286097306333</v>
+        <v>1.96892104161102</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2936268802263522</v>
+        <v>0.2925042579902095</v>
       </c>
       <c r="C7">
-        <v>0.999724168007887</v>
+        <v>0.9789877322222572</v>
       </c>
       <c r="D7">
-        <v>4.905488059981674</v>
+        <v>4.769865589305868</v>
       </c>
       <c r="E7">
-        <v>2.214833641604189</v>
+        <v>2.184002195352804</v>
       </c>
       <c r="F7">
-        <v>2.227333515476834</v>
+        <v>2.19502714946493</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2339287874485977</v>
+        <v>0.2341597008279832</v>
       </c>
       <c r="C8">
-        <v>1.007627164027908</v>
+        <v>0.9857524095050276</v>
       </c>
       <c r="D8">
-        <v>5.003647654014131</v>
+        <v>4.861337304003894</v>
       </c>
       <c r="E8">
-        <v>2.236883469028758</v>
+        <v>2.204844054350306</v>
       </c>
       <c r="F8">
-        <v>2.258072718037386</v>
+        <v>2.224381796787603</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1807689603703594</v>
+        <v>0.1803491558900733</v>
       </c>
       <c r="C9">
-        <v>1.497342948823048</v>
+        <v>1.423780144984279</v>
       </c>
       <c r="D9">
-        <v>9.511094063079014</v>
+        <v>8.982173702935924</v>
       </c>
       <c r="E9">
-        <v>3.084006171050735</v>
+        <v>2.997027477841324</v>
       </c>
       <c r="F9">
-        <v>3.173455165340056</v>
+        <v>3.078327104205846</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.6878977726065058</v>
+        <v>-0.6058116565806465</v>
       </c>
       <c r="C10">
-        <v>1.16036325979617</v>
+        <v>1.074425645603604</v>
       </c>
       <c r="D10">
-        <v>7.183952125666254</v>
+        <v>6.535069776881333</v>
       </c>
       <c r="E10">
-        <v>2.680289560041275</v>
+        <v>2.556378253874284</v>
       </c>
       <c r="F10">
-        <v>2.730638667684675</v>
+        <v>2.60477795886628</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
